--- a/dal, subji, kadhi/Dal/Chilka moong dal from Raj Bhog recipies.xlsx
+++ b/dal, subji, kadhi/Dal/Chilka moong dal from Raj Bhog recipies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\Dal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7186DB-B7EE-4094-A422-74DDA93390F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424362A2-27F2-4010-B303-4B71F1C3EB3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>TBSP</t>
   </si>
   <si>
-    <t>grated ginger</t>
+    <t>ginger (according_to_season)</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -166,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,6 +194,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +536,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,8 +828,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="5">
